--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T04:44:15+00:00</t>
+    <t>2024-07-18T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T07:36:18+00:00</t>
+    <t>2024-07-18T08:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T08:08:43+00:00</t>
+    <t>2024-07-18T10:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T10:06:33+00:00</t>
+    <t>2024-07-19T00:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T00:19:55+00:00</t>
+    <t>2024-07-19T00:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T00:35:15+00:00</t>
+    <t>2024-07-19T01:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T01:02:53+00:00</t>
+    <t>2024-07-23T04:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T04:45:21+00:00</t>
+    <t>2024-07-23T04:53:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T04:53:28+00:00</t>
+    <t>2024-07-23T05:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T05:58:26+00:00</t>
+    <t>2024-07-23T08:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T08:16:27+00:00</t>
+    <t>2024-07-23T08:49:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T08:49:05+00:00</t>
+    <t>2024-07-23T08:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T08:54:56+00:00</t>
+    <t>2024-07-26T08:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T08:53:21+00:00</t>
+    <t>2024-07-26T09:02:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T09:02:14+00:00</t>
+    <t>2024-07-27T00:53:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-27T00:53:13+00:00</t>
+    <t>2024-07-29T00:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T00:21:35+00:00</t>
+    <t>2024-10-04T22:11:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2_servicerequest/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T22:11:33+00:00</t>
+    <t>2024-10-07T00:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
